--- a/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_2.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_2.xlsx
@@ -30,22 +30,22 @@
     <t>ERR_MSG</t>
   </si>
   <si>
-    <t>QC View Object (DVM_QC_OBJECTS)</t>
+    <t>select * from DVM_STD_QC_VIEW_V</t>
   </si>
   <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_OVERLAP_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+    <t>Data QC View Object (DVM_QC_OBJECTS)</t>
   </si>
   <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+    <t>Data QC View Does Not Exist - The data QC View "CCD_QC_CRUISE_TEMP_V" does not exist, either remove the data QC object record or update the record with the correct data QC view name</t>
   </si>
   <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_ALIAS_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_ALIAS_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
   </si>
   <si>
-    <t>View Does Not Exist - The QC View Object "CCD_QC_CRUISE_TEMP_V" does not exist, either remove the QC object record or update the record with the correct view name</t>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_OVERLAP_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
   </si>
   <si>
-    <t>select * from DVM_STD_QC_VIEW_V</t>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
   </si>
 </sst>
 </file>
@@ -81,11 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,36 +387,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -451,15 +448,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -467,18 +464,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +488,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +514,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Export Worksheet'!A2</f>
-        <v>QC View Object (DVM_QC_OBJECTS)</v>
+        <v>Data QC View Object (DVM_QC_OBJECTS)</v>
       </c>
       <c r="B2" t="b">
         <f>EXACT('Export Worksheet'!A2,'Database Export'!A2)</f>
@@ -531,7 +528,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Export Worksheet'!A3</f>
-        <v>QC View Object (DVM_QC_OBJECTS)</v>
+        <v>Data QC View Object (DVM_QC_OBJECTS)</v>
       </c>
       <c r="B3" t="b">
         <f>EXACT('Export Worksheet'!A3,'Database Export'!A3)</f>
@@ -545,7 +542,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Export Worksheet'!A4</f>
-        <v>QC View Object (DVM_QC_OBJECTS)</v>
+        <v>Data QC View Object (DVM_QC_OBJECTS)</v>
       </c>
       <c r="B4" t="b">
         <f>EXACT('Export Worksheet'!A4,'Database Export'!A4)</f>
@@ -559,7 +556,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Export Worksheet'!A5</f>
-        <v>QC View Object (DVM_QC_OBJECTS)</v>
+        <v>Data QC View Object (DVM_QC_OBJECTS)</v>
       </c>
       <c r="B5" t="b">
         <f>EXACT('Export Worksheet'!A5,'Database Export'!A5)</f>
@@ -851,7 +848,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
